--- a/data/cardData.xlsx
+++ b/data/cardData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYOTAEK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYOTAEK\Desktop\아주대\데이터베이스\팀플\2021_db_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C71533C-E0E2-4879-8964-205CD070E1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DAD466-3D92-4950-9972-0714ACC3F37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E91311D0-9F45-4A06-AB66-81A92A559CF8}"/>
   </bookViews>
@@ -25,21 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="113">
-  <si>
-    <t>cardInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="12">
   <si>
     <t>cardName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monUseCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiscountInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -63,73 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NH20해봄체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이언 치즈 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어디서나 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>go 캐시백 글로벌 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어피치 스윗 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드림플러스 아시아나 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갤러리아 체크카드</t>
-  </si>
-  <si>
-    <t>카드의정석 SSO3 CHECK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드의정석 POINT CHECK x 아기상어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한카드 4Tune 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올바른GLOBAL체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데마트 라서즐거운 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드의 정석 SSO3 NEW-TRO CHECK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일상의 기쁨카드(체크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 아이행복체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라떼 우리체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 YG 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>투썸플레이스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,322 +58,19 @@
     <t>r</t>
   </si>
   <si>
-    <t>IBK무민카드(체크)</t>
-  </si>
-  <si>
-    <t>CJ ONE 신한카드 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이디야</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드의정석 L.POINT CHECK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요기요 신한카드 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하이틴즈 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이언 치즈 체크카드</t>
   </si>
   <si>
     <t>커피빈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>go 캐시백 글로벌 체크카드</t>
-  </si>
-  <si>
-    <t>어피치 스윗 체크카드</t>
-  </si>
-  <si>
-    <t>신한 S20 체크카드</t>
-  </si>
-  <si>
-    <t>누리체크카드</t>
-  </si>
-  <si>
-    <t>ONE 체크카드</t>
-  </si>
-  <si>
-    <t>가온체크카드</t>
-  </si>
-  <si>
-    <t>New 현대백화점 체크카드</t>
-  </si>
-  <si>
-    <t>신한카드 4Tune 체크</t>
-  </si>
-  <si>
-    <t>알뜰교통카드 S20 Check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IBK 국민행복 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC줌체크카드(비씨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한 S20 Pink(핑크)체크카드</t>
-  </si>
-  <si>
-    <t>우리국민행복체크카드</t>
-  </si>
-  <si>
-    <t>내일배움체크카드</t>
-  </si>
-  <si>
-    <t>비트윈체크카드</t>
-  </si>
-  <si>
-    <t>국민행복체크카드(비씨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라떼 우리체크카드</t>
-  </si>
-  <si>
-    <t>하나멤버스 1Q 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이행복카드(체크)</t>
-  </si>
-  <si>
-    <t>NC다이노스체크카드</t>
-  </si>
-  <si>
-    <t>음 체크카드</t>
-  </si>
-  <si>
     <t>탐앤탐스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일상의 기쁨카드(체크)</t>
-  </si>
-  <si>
-    <t>DC줌체크카드(비씨)</t>
-  </si>
-  <si>
-    <t>위글위글 첵첵 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스타벅스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드의정석 COOKIE CHECK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노리체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오뱅크 프렌즈 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한카드 Hey Young 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알뜰교통카드 COOKIE CHECK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoL CHAMPIONS KOREA 우리체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>young利한(영리한) 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸타는 우리 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IBK무민카드(체크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해피락스타 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신한 S20 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라사랑체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아시아나 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펭수 노리 체크카드(펭카)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로이 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누리체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오페이 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONE 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배달의민족 비장의카드 V.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해피노리체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가온체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New 현대백화점 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global+ 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JYP Fan's EDM 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FANtastic S 신한카드 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신세계 씨티 플러스 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠팡 신한카드 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국민행복 삼성체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리국민행복체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>락스타 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내일배움체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에이스플러스체크카드(벨리미키)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GD카드(체크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG U+체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시코르 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펭수 노리 체크카드(펭모티콘)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이행복카드(체크)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신세계 신한카드 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몰테일 신한카드 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해외에선 체크카드</t>
-  </si>
-  <si>
-    <t>NC다이노스체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에이스플러스체크카드(미키90주년)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이행복체크카드(비씨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.Point 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아모레퍼시픽 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AK우리카드 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIKIT fun 체크카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이소 신한카드 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국야쿠르트 팝 신한카드 체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,59 +484,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C757B7F-9558-453C-97ED-75B96F1EB141}">
-  <dimension ref="A1:L134"/>
+  <dimension ref="A3:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="5" width="13.19921875" customWidth="1"/>
     <col min="6" max="6" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>100</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -929,17 +538,17 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
@@ -950,17 +559,17 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
-        <v>100</v>
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
@@ -971,17 +580,17 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
@@ -992,17 +601,17 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>100</v>
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -1013,17 +622,17 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2">
-        <v>31</v>
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
       </c>
       <c r="E9" s="2">
         <v>5</v>
@@ -1034,17 +643,17 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -1055,17 +664,17 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2">
-        <v>100</v>
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1076,17 +685,17 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
@@ -1097,17 +706,17 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2000</v>
       </c>
       <c r="E13" s="2">
         <v>2000</v>
@@ -1118,17 +727,17 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20</v>
       </c>
       <c r="E14" s="2">
         <v>20</v>
@@ -1139,17 +748,17 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20</v>
       </c>
       <c r="E15" s="2">
         <v>20</v>
@@ -1160,17 +769,17 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2">
-        <v>100</v>
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1000</v>
       </c>
       <c r="E16" s="2">
         <v>1000</v>
@@ -1181,17 +790,17 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2</v>
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20</v>
       </c>
       <c r="E17" s="2">
         <v>20</v>
@@ -1202,17 +811,17 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
@@ -1223,17 +832,17 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3</v>
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
       </c>
       <c r="E19" s="2">
         <v>20</v>
@@ -1244,17 +853,17 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
       </c>
       <c r="E20" s="2">
         <v>5</v>
@@ -1265,17 +874,17 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2">
-        <v>3</v>
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
@@ -1286,17 +895,17 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2">
-        <v>100</v>
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.5</v>
       </c>
       <c r="E22" s="2">
         <v>1.5</v>
@@ -1307,17 +916,17 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2">
-        <v>100</v>
+      <c r="A23" s="2">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
       </c>
       <c r="E23" s="2">
         <v>5</v>
@@ -1328,17 +937,17 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2">
-        <v>4</v>
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15</v>
       </c>
       <c r="E24" s="2">
         <v>15</v>
@@ -1349,17 +958,17 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2">
-        <v>100</v>
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1370,17 +979,17 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="2">
-        <v>100</v>
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.5</v>
       </c>
       <c r="E26" s="2">
         <v>1.5</v>
@@ -1391,17 +1000,17 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="2">
-        <v>100</v>
+      <c r="A27" s="2">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1412,17 +1021,17 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="2">
-        <v>100</v>
+      <c r="A28" s="2">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>500</v>
       </c>
       <c r="E28" s="2">
         <v>500</v>
@@ -1433,17 +1042,17 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="2">
-        <v>100</v>
+      <c r="A29" s="2">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1000</v>
       </c>
       <c r="E29" s="2">
         <v>1000</v>
@@ -1454,17 +1063,17 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="2">
-        <v>100</v>
+      <c r="A30" s="3">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -1475,17 +1084,17 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3</v>
+      <c r="A31" s="5">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
@@ -1496,17 +1105,17 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2">
-        <v>100</v>
+      <c r="A32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
       </c>
       <c r="E32" s="2">
         <v>4</v>
@@ -1517,17 +1126,17 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="2">
-        <v>2</v>
+      <c r="A33" s="5">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
@@ -1538,17 +1147,17 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="2">
-        <v>3</v>
+      <c r="A34" s="5">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>20</v>
       </c>
       <c r="E34" s="2">
         <v>20</v>
@@ -1559,17 +1168,17 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="2">
-        <v>100</v>
+      <c r="A35" s="5">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.2</v>
       </c>
       <c r="E35" s="2">
         <v>0.2</v>
@@ -1580,17 +1189,17 @@
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2">
-        <v>100</v>
+      <c r="A36" s="5">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.2</v>
       </c>
       <c r="E36" s="2">
         <v>0.2</v>
@@ -1601,17 +1210,17 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="2">
-        <v>100</v>
+      <c r="A37" s="5">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.2</v>
       </c>
       <c r="E37" s="2">
         <v>0.2</v>
@@ -1622,17 +1231,17 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="2">
-        <v>2</v>
+      <c r="A38" s="5">
+        <v>27</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>20</v>
       </c>
       <c r="E38" s="2">
         <v>20</v>
@@ -1643,17 +1252,17 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="2">
-        <v>3</v>
+      <c r="A39" s="5">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D39" s="2">
+        <v>10</v>
       </c>
       <c r="E39" s="2">
         <v>10</v>
@@ -1664,17 +1273,17 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="2">
-        <v>3</v>
+      <c r="A40" s="5">
+        <v>28</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>20</v>
       </c>
       <c r="E40" s="2">
         <v>20</v>
@@ -1685,17 +1294,17 @@
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="2">
-        <v>2</v>
+      <c r="A41" s="5">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10</v>
       </c>
       <c r="E41" s="2">
         <v>10</v>
@@ -1706,17 +1315,17 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="2">
-        <v>2</v>
+      <c r="A42" s="5">
+        <v>29</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>10</v>
       </c>
       <c r="E42" s="2">
         <v>10</v>
@@ -1727,17 +1336,17 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="2">
-        <v>100</v>
+      <c r="A43" s="5">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10</v>
       </c>
       <c r="E43" s="2">
         <v>10</v>
@@ -1748,17 +1357,17 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="2">
-        <v>3</v>
+      <c r="A44" s="5">
+        <v>31</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>20</v>
       </c>
       <c r="E44" s="2">
         <v>20</v>
@@ -1769,17 +1378,17 @@
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="2">
-        <v>4</v>
+      <c r="A45" s="5">
+        <v>32</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>10</v>
       </c>
       <c r="E45" s="2">
         <v>10</v>
@@ -1790,17 +1399,17 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="2">
-        <v>3</v>
+      <c r="A46" s="5">
+        <v>33</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>10</v>
       </c>
       <c r="E46" s="2">
         <v>10</v>
@@ -1811,17 +1420,17 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="2">
-        <v>100</v>
+      <c r="A47" s="5">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>10</v>
       </c>
       <c r="E47" s="2">
         <v>10</v>
@@ -1832,17 +1441,17 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="2">
-        <v>4</v>
+      <c r="A48" s="5">
+        <v>35</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>10</v>
       </c>
       <c r="E48" s="2">
         <v>10</v>
@@ -1853,17 +1462,17 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="2">
-        <v>100</v>
+      <c r="A49" s="5">
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1000</v>
       </c>
       <c r="E49" s="2">
         <v>1000</v>
@@ -1874,17 +1483,17 @@
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="2">
-        <v>100</v>
+      <c r="A50" s="5">
+        <v>36</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5</v>
       </c>
       <c r="E50" s="2">
         <v>5</v>
@@ -1895,17 +1504,17 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="2">
-        <v>4</v>
+      <c r="A51" s="5">
+        <v>37</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>10</v>
       </c>
       <c r="E51" s="2">
         <v>10</v>
@@ -1916,17 +1525,17 @@
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="2">
-        <v>100</v>
+      <c r="A52" s="5">
+        <v>38</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10</v>
       </c>
       <c r="E52" s="2">
         <v>10</v>
@@ -1937,17 +1546,17 @@
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="2">
-        <v>100</v>
+      <c r="A53" s="5">
+        <v>39</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
@@ -1958,17 +1567,17 @@
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54" s="2">
-        <v>2</v>
+      <c r="A54" s="6">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D54" s="2">
+        <v>10</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
@@ -1979,17 +1588,17 @@
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="2">
-        <v>2</v>
+      <c r="A55" s="6">
+        <v>9</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>10</v>
       </c>
       <c r="E55" s="2">
         <v>10</v>
@@ -2000,17 +1609,17 @@
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="2">
-        <v>100</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>7</v>
+      <c r="A56" s="5">
+        <v>30</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3">
+        <v>10</v>
       </c>
       <c r="E56" s="3">
         <v>10</v>
@@ -2021,17 +1630,17 @@
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="3">
-        <v>3</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>7</v>
+      <c r="A57" s="5">
+        <v>33</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3">
+        <v>10</v>
       </c>
       <c r="E57" s="3">
         <v>10</v>
@@ -2042,17 +1651,17 @@
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="2">
-        <v>100</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="A58" s="5">
+        <v>13</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -2063,17 +1672,17 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="2">
-        <v>100</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>7</v>
+      <c r="A59" s="5">
+        <v>38</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3">
+        <v>10</v>
       </c>
       <c r="E59" s="3">
         <v>10</v>
@@ -2084,17 +1693,17 @@
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="2">
-        <v>100</v>
+      <c r="A60" s="2">
+        <v>40</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3000</v>
       </c>
       <c r="E60" s="2">
         <v>3000</v>
@@ -2105,17 +1714,17 @@
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="2">
-        <v>4</v>
+      <c r="A61" s="2">
+        <v>41</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2000</v>
       </c>
       <c r="E61" s="2">
         <v>2000</v>
@@ -2126,17 +1735,17 @@
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="2">
-        <v>3</v>
+      <c r="A62" s="2">
+        <v>16</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D62" s="2">
+        <v>20</v>
       </c>
       <c r="E62" s="2">
         <v>20</v>
@@ -2147,17 +1756,17 @@
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="2">
-        <v>100</v>
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -2168,17 +1777,17 @@
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2">
-        <v>3</v>
+      <c r="A64" s="2">
+        <v>42</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>20</v>
       </c>
       <c r="E64" s="2">
         <v>20</v>
@@ -2189,17 +1798,17 @@
       <c r="L64" s="1"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2">
-        <v>3</v>
+      <c r="A65" s="2">
+        <v>43</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1000</v>
       </c>
       <c r="E65" s="2">
         <v>1000</v>
@@ -2210,17 +1819,17 @@
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="2">
-        <v>5</v>
+      <c r="A66" s="2">
+        <v>44</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1000</v>
       </c>
       <c r="E66" s="2">
         <v>1000</v>
@@ -2231,17 +1840,17 @@
       <c r="L66" s="1"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="2">
-        <v>4</v>
+      <c r="A67" s="2">
+        <v>45</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2000</v>
       </c>
       <c r="E67" s="2">
         <v>2000</v>
@@ -2252,17 +1861,17 @@
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="2">
-        <v>2</v>
+      <c r="A68" s="2">
+        <v>46</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D68" s="2">
+        <v>20</v>
       </c>
       <c r="E68" s="2">
         <v>20</v>
@@ -2273,17 +1882,17 @@
       <c r="L68" s="1"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="2">
-        <v>5</v>
+      <c r="A69" s="2">
+        <v>17</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D69" s="2">
+        <v>5</v>
       </c>
       <c r="E69" s="2">
         <v>5</v>
@@ -2294,17 +1903,17 @@
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B70" s="2">
-        <v>3</v>
+      <c r="A70" s="2">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D70" s="2">
+        <v>5</v>
       </c>
       <c r="E70" s="2">
         <v>5</v>
@@ -2315,17 +1924,17 @@
       <c r="L70" s="1"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="2">
-        <v>100</v>
+      <c r="A71" s="2">
+        <v>3</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D71" s="2">
+        <v>4</v>
       </c>
       <c r="E71" s="2">
         <v>4</v>
@@ -2336,17 +1945,17 @@
       <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="2">
-        <v>3</v>
+      <c r="A72" s="2">
+        <v>47</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1000</v>
       </c>
       <c r="E72" s="2">
         <v>1000</v>
@@ -2357,17 +1966,17 @@
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="2">
-        <v>2</v>
+      <c r="A73" s="2">
+        <v>48</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D73" s="2">
+        <v>20</v>
       </c>
       <c r="E73" s="2">
         <v>20</v>
@@ -2378,17 +1987,17 @@
       <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="2">
-        <v>2</v>
+      <c r="A74" s="2">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D74" s="2">
+        <v>10</v>
       </c>
       <c r="E74" s="2">
         <v>10</v>
@@ -2399,17 +2008,17 @@
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="2">
-        <v>2</v>
+      <c r="A75" s="2">
+        <v>49</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D75" s="2">
+        <v>20</v>
       </c>
       <c r="E75" s="2">
         <v>20</v>
@@ -2420,17 +2029,17 @@
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="2">
-        <v>100</v>
+      <c r="A76" s="2">
+        <v>5</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5</v>
       </c>
       <c r="E76" s="2">
         <v>5</v>
@@ -2441,17 +2050,17 @@
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="2">
-        <v>3</v>
+      <c r="A77" s="2">
+        <v>23</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D77" s="2">
+        <v>20</v>
       </c>
       <c r="E77" s="2">
         <v>20</v>
@@ -2462,17 +2071,17 @@
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="2">
-        <v>2</v>
+      <c r="A78" s="2">
+        <v>50</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D78" s="2">
+        <v>20</v>
       </c>
       <c r="E78" s="2">
         <v>20</v>
@@ -2483,952 +2092,952 @@
       <c r="L78" s="1"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B79" s="2">
-        <v>100</v>
+      <c r="A79" s="2">
+        <v>51</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D79" s="2">
+        <v>5</v>
       </c>
       <c r="E79" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B80" s="2">
-        <v>2</v>
+      <c r="A80" s="2">
+        <v>52</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D80" s="2">
+        <v>20</v>
       </c>
       <c r="E80" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B81" s="2">
-        <v>100</v>
+      <c r="A81" s="2">
+        <v>53</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D81" s="2">
+        <v>5</v>
       </c>
       <c r="E81" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="2">
-        <v>100</v>
+      <c r="A82" s="2">
+        <v>24</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.2</v>
       </c>
       <c r="E82" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="2">
-        <v>100</v>
+      <c r="A83" s="2">
+        <v>18</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1.5</v>
       </c>
       <c r="E83" s="2">
         <v>1.5</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="2">
-        <v>4</v>
+      <c r="A84" s="2">
+        <v>54</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D84" s="2">
+        <v>5</v>
       </c>
       <c r="E84" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="2">
-        <v>100</v>
+      <c r="A85" s="2">
+        <v>25</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.2</v>
       </c>
       <c r="E85" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B86" s="2">
-        <v>31</v>
+      <c r="A86" s="2">
+        <v>6</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D86" s="2">
+        <v>5</v>
       </c>
       <c r="E86" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B87" s="2">
-        <v>2</v>
+      <c r="A87" s="2">
+        <v>55</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D87" s="2">
+        <v>20</v>
       </c>
       <c r="E87" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="2">
-        <v>2</v>
+      <c r="A88" s="2">
+        <v>56</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D88" s="2">
+        <v>20</v>
       </c>
       <c r="E88" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" s="2">
-        <v>100</v>
+      <c r="A89" s="2">
+        <v>26</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.2</v>
       </c>
       <c r="E89" s="2">
         <v>0.2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B90" s="2">
-        <v>100</v>
+      <c r="A90" s="2">
+        <v>21</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1.5</v>
       </c>
       <c r="E90" s="2">
         <v>1.5</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="2">
-        <v>2</v>
+      <c r="A91" s="2">
+        <v>27</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2">
+        <v>20</v>
+      </c>
+      <c r="E91" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A92" s="2">
         <v>7</v>
       </c>
-      <c r="E91" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A92" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" s="2">
-        <v>3</v>
+      <c r="B92" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D92" s="2">
+        <v>10</v>
       </c>
       <c r="E92" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B93" s="2">
-        <v>100</v>
+      <c r="A93" s="2">
+        <v>8</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
       </c>
       <c r="E93" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="2">
-        <v>4</v>
+      <c r="A94" s="2">
+        <v>57</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D94" s="2">
+        <v>5</v>
       </c>
       <c r="E94" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B95" s="2">
-        <v>2</v>
+      <c r="A95" s="2">
+        <v>12</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D95" s="2">
+        <v>20</v>
       </c>
       <c r="E95" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A96" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="2">
-        <v>3</v>
+      <c r="A96" s="2">
+        <v>28</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D96" s="2">
+        <v>20</v>
       </c>
       <c r="E96" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A97" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B97" s="2">
-        <v>3</v>
+      <c r="A97" s="2">
+        <v>58</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D97" s="2">
+        <v>5</v>
       </c>
       <c r="E97" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B98" s="2">
-        <v>2</v>
+      <c r="A98" s="2">
+        <v>10</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2000</v>
       </c>
       <c r="E98" s="2">
         <v>2000</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" s="2">
-        <v>2</v>
+      <c r="A99" s="2">
+        <v>9</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D99" s="2">
+        <v>10</v>
       </c>
       <c r="E99" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B100" s="2">
-        <v>2</v>
+      <c r="A100" s="2">
+        <v>29</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D100" s="2">
+        <v>10</v>
       </c>
       <c r="E100" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B101" s="2">
-        <v>100</v>
+      <c r="A101" s="2">
+        <v>30</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D101" s="2">
+        <v>10</v>
       </c>
       <c r="E101" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A102" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B102" s="2">
-        <v>4</v>
+      <c r="A102" s="2">
+        <v>59</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2000</v>
       </c>
       <c r="E102" s="2">
         <v>2000</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B103" s="2">
-        <v>3</v>
+      <c r="A103" s="2">
+        <v>31</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="2">
+        <v>20</v>
+      </c>
+      <c r="E103" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A104" s="2">
+        <v>60</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="2">
+        <v>10</v>
+      </c>
+      <c r="E104" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
         <v>61</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B104" s="2">
-        <v>100</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A105" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B105" s="2">
-        <v>100</v>
+      <c r="B105" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D105" s="2">
+        <v>10</v>
       </c>
       <c r="E105" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B106" s="2">
-        <v>1</v>
+      <c r="A106" s="2">
+        <v>62</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1000</v>
       </c>
       <c r="E106" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A107" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="2">
-        <v>4</v>
+      <c r="A107" s="2">
+        <v>32</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D107" s="2">
+        <v>10</v>
       </c>
       <c r="E107" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A108" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B108" s="2">
-        <v>2</v>
+      <c r="A108" s="2">
+        <v>63</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D108" s="2">
+        <v>20</v>
       </c>
       <c r="E108" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A109" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B109" s="2">
-        <v>3</v>
+      <c r="A109" s="2">
+        <v>33</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D109" s="2">
+        <v>10</v>
       </c>
       <c r="E109" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B110" s="2">
-        <v>2</v>
+      <c r="A110" s="2">
+        <v>64</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D110" s="2">
+        <v>20</v>
       </c>
       <c r="E110" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A111" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B111" s="2">
-        <v>2</v>
+      <c r="A111" s="2">
+        <v>65</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D111" s="2">
+        <v>20</v>
       </c>
       <c r="E111" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B112" s="2">
-        <v>100</v>
+      <c r="A112" s="2">
+        <v>66</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D112" s="2">
+        <v>10</v>
       </c>
       <c r="E112" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B113" s="2">
-        <v>100</v>
+      <c r="A113" s="2">
+        <v>67</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D113" s="2">
+        <v>20</v>
       </c>
       <c r="E113" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B114" s="2">
-        <v>100</v>
+      <c r="A114" s="2">
+        <v>68</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D114" s="2">
+        <v>5</v>
       </c>
       <c r="E114" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B115" s="2">
-        <v>4</v>
+      <c r="A115" s="2">
+        <v>35</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D115" s="2">
+        <v>10</v>
       </c>
       <c r="E115" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B116" s="2">
-        <v>100</v>
+      <c r="A116" s="2">
+        <v>36</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D116" s="2">
+        <v>5</v>
       </c>
       <c r="E116" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" s="2">
-        <v>2</v>
+      <c r="A117" s="2">
+        <v>11</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D117" s="2">
+        <v>20</v>
       </c>
       <c r="E117" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B118" s="2">
-        <v>2</v>
+      <c r="A118" s="2">
+        <v>69</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D118" s="2">
+        <v>20</v>
       </c>
       <c r="E118" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B119" s="2">
-        <v>100</v>
+      <c r="A119" s="2">
+        <v>13</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1000</v>
       </c>
       <c r="E119" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B120" s="2">
-        <v>4</v>
+      <c r="A120" s="2">
+        <v>37</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D120" s="2">
+        <v>10</v>
       </c>
       <c r="E120" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A121" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B121" s="2">
-        <v>3</v>
+      <c r="A121" s="2">
+        <v>70</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D121" s="2">
+        <v>500</v>
       </c>
       <c r="E121" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A122" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B122" s="2">
-        <v>4</v>
+      <c r="A122" s="2">
+        <v>71</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D122" s="2">
+        <v>9</v>
       </c>
       <c r="E122" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A123" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B123" s="2">
-        <v>100</v>
+      <c r="A123" s="2">
+        <v>72</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D123" s="2">
+        <v>5</v>
       </c>
       <c r="E123" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A124" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B124" s="2">
-        <v>100</v>
+      <c r="A124" s="2">
+        <v>38</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D124" s="2">
+        <v>10</v>
       </c>
       <c r="E124" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A125" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B125" s="2">
-        <v>2</v>
+      <c r="A125" s="2">
+        <v>73</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D125" s="2">
+        <v>20</v>
       </c>
       <c r="E125" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A126" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B126" s="2">
-        <v>100</v>
+      <c r="A126" s="2">
+        <v>39</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D126" s="2">
+        <v>5</v>
       </c>
       <c r="E126" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A127" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B127" s="2">
-        <v>2</v>
+      <c r="A127" s="2">
+        <v>74</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D127" s="2">
+        <v>5</v>
       </c>
       <c r="E127" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A128" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" s="2">
-        <v>2</v>
+      <c r="A128" s="2">
+        <v>14</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D128" s="2">
+        <v>20</v>
       </c>
       <c r="E128" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A129" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B129" s="2">
-        <v>100</v>
+      <c r="A129" s="2">
+        <v>75</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D129" s="2">
+        <v>5</v>
       </c>
       <c r="E129" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A130" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B130" s="2">
-        <v>100</v>
+      <c r="A130" s="2">
+        <v>76</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D130" s="2">
+        <v>10</v>
       </c>
       <c r="E130" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A131" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B131" s="2">
-        <v>1</v>
+      <c r="A131" s="2">
+        <v>77</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1000</v>
       </c>
       <c r="E131" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A132" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B132" s="2">
-        <v>5</v>
+      <c r="A132" s="2">
+        <v>78</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D132" s="2">
+        <v>1000</v>
       </c>
       <c r="E132" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A133" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B133" s="2">
-        <v>5</v>
+      <c r="A133" s="2">
+        <v>79</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D133" s="2">
+        <v>10</v>
       </c>
       <c r="E133" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A134" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B134" s="2">
-        <v>100</v>
+      <c r="A134" s="2">
+        <v>80</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D134" s="2">
+        <v>5</v>
       </c>
       <c r="E134" s="2">
         <v>5</v>
